--- a/减速器轴结构设计校核.xlsx
+++ b/减速器轴结构设计校核.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="112">
   <si>
     <t>齿轮1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -351,10 +351,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7204AC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>段1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -424,6 +420,50 @@
   </si>
   <si>
     <t>\sga_-1-b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初定d3min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7209AC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7205AC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段1（轴）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段3（轴）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -793,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1017,10 +1057,10 @@
         <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" t="s">
         <v>78</v>
@@ -1120,35 +1160,47 @@
       <c r="A15" t="s">
         <v>82</v>
       </c>
-      <c r="I15" t="s">
+      <c r="H15" t="s">
         <v>64</v>
+      </c>
+      <c r="M15" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>20</v>
       </c>
-      <c r="I16">
+      <c r="H16">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="I17" t="s">
+      <c r="H17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>83</v>
-      </c>
-      <c r="I18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1158,94 +1210,145 @@
       <c r="C19" t="s">
         <v>40</v>
       </c>
+      <c r="H19" t="s">
+        <v>38</v>
+      </c>
       <c r="I19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" t="s">
         <v>38</v>
       </c>
-      <c r="J19" t="s">
+      <c r="N19" t="s">
         <v>39</v>
       </c>
-      <c r="K19" t="s">
+      <c r="O19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>20</v>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H20" s="6">
+        <v>35</v>
       </c>
       <c r="I20">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="J20">
-        <v>72</v>
-      </c>
-      <c r="K20">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="6">
+        <v>45</v>
+      </c>
+      <c r="N20">
+        <v>85</v>
+      </c>
+      <c r="O20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s">
         <v>84</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>85</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>86</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>87</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>88</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" t="s">
+        <v>107</v>
+      </c>
+      <c r="N21" t="s">
+        <v>105</v>
+      </c>
+      <c r="O21" t="s">
+        <v>106</v>
+      </c>
+      <c r="P21" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>109</v>
+      </c>
+      <c r="R21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>22.5</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>81.5</v>
+      </c>
+      <c r="F22">
+        <v>15</v>
+      </c>
+      <c r="H22">
+        <v>25</v>
+      </c>
+      <c r="I22">
+        <v>12</v>
+      </c>
+      <c r="J22">
+        <v>25</v>
+      </c>
+      <c r="M22">
+        <v>19</v>
+      </c>
+      <c r="N22">
+        <v>53.5</v>
+      </c>
+      <c r="O22">
+        <v>10</v>
+      </c>
+      <c r="P22">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
         <v>89</v>
       </c>
-      <c r="I21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C22">
-        <v>14</v>
-      </c>
-      <c r="D22">
-        <v>7</v>
-      </c>
-      <c r="E22">
-        <v>92</v>
-      </c>
-      <c r="F22">
-        <v>14</v>
-      </c>
-      <c r="I22">
-        <v>25</v>
-      </c>
-      <c r="J22">
-        <v>12</v>
-      </c>
-      <c r="K22">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>90</v>
       </c>
-      <c r="E23" t="s">
-        <v>91</v>
+      <c r="H23" t="s">
+        <v>89</v>
       </c>
       <c r="I23" t="s">
         <v>90</v>
@@ -1253,286 +1356,384 @@
       <c r="J23" t="s">
         <v>91</v>
       </c>
-      <c r="K23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23" t="s">
+        <v>89</v>
+      </c>
+      <c r="O23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C24">
         <f>A7/2+D22+C22/2</f>
-        <v>37.5</v>
+        <v>44.75</v>
       </c>
       <c r="E24">
         <f>A7/2+E22+F22/2</f>
-        <v>122.5</v>
+        <v>112.5</v>
+      </c>
+      <c r="H24">
+        <f>D7/2+H22-J20/2</f>
+        <v>37.5</v>
       </c>
       <c r="I24">
-        <f>D7/2+I22-K20/2</f>
-        <v>37.5</v>
+        <f>D7/2+G7/2+I22</f>
+        <v>69.5</v>
       </c>
       <c r="J24">
-        <f>D7/2+G7/2+J22</f>
-        <v>69.5</v>
-      </c>
-      <c r="K24">
-        <f>G7/2+K22-K20/2</f>
+        <f>G7/2+J22-J20/2</f>
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24">
+        <f>M22+N22+O22+J7/2-O20/2</f>
+        <v>107</v>
+      </c>
+      <c r="O24">
+        <f>J7/2+P22-O20/2</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>44</v>
       </c>
       <c r="E26" t="s">
         <v>45</v>
       </c>
+      <c r="H26" t="s">
+        <v>44</v>
+      </c>
       <c r="I26" t="s">
+        <v>45</v>
+      </c>
+      <c r="M26" t="s">
         <v>44</v>
       </c>
-      <c r="J26" t="s">
+      <c r="O26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C27">
         <f>(-C3*A5/2-B3*E24)/(C24+E24)</f>
-        <v>-0.5283172625</v>
+        <v>-0.50149928139904609</v>
       </c>
       <c r="E27">
         <f>(-B3*C24+C3*A5/2)/(C24+E24)</f>
-        <v>-3.8682737499999988E-2</v>
+        <v>-6.5500718600953883E-2</v>
+      </c>
+      <c r="H27">
+        <f>(-F3*D5/2+E3*(I24+J24)-I3*G5/2-H3*J24)/(H24+I24+J24)</f>
+        <v>-0.61384523749999997</v>
       </c>
       <c r="I27">
-        <f>(-F3*D5/2+E3*(J24+K24)-I3*G5/2-H3*K24)/(I24+J24+K24)</f>
-        <v>-0.61384523749999997</v>
-      </c>
-      <c r="J27">
-        <f>(I3*G5/2-H3*(I24+J24)+F3*D5/2+E3*I24)/(I24+J24+K24)</f>
+        <f>(I3*G5/2-H3*(H24+I24)+F3*D5/2+E3*H24)/(H24+I24+J24)</f>
         <v>-9.6154762499999852E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <f>(-L3*J5/2+K3*O24)/(M24+O24)</f>
+        <v>-0.26746249999999999</v>
+      </c>
+      <c r="O27">
+        <f>(L3*J5/2+K3*M24)/(M24+O24)</f>
+        <v>1.5444624999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>46</v>
       </c>
       <c r="E28" t="s">
         <v>47</v>
       </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
       <c r="I28" t="s">
+        <v>47</v>
+      </c>
+      <c r="M28" t="s">
         <v>46</v>
       </c>
-      <c r="J28" t="s">
+      <c r="O28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C29">
         <f>-A3*E24/(C24+E24)</f>
-        <v>-1.0841249999999998</v>
+        <v>-1.0130365659777423</v>
       </c>
       <c r="E29">
         <f>-A3*C24/(C24+E24)</f>
-        <v>-0.33187499999999998</v>
+        <v>-0.40296343402225754</v>
+      </c>
+      <c r="H29">
+        <f>(D3*(I24+J24)+G3*J24)/(H24+I24+J24)</f>
+        <v>2.1997749999999998</v>
       </c>
       <c r="I29">
-        <f>(D3*(J24+K24)+G3*K24)/(I24+J24+K24)</f>
-        <v>2.1997749999999998</v>
-      </c>
-      <c r="J29">
-        <f>(G3*(I24+J24)+D3*I24)/(I24+J24+K24)</f>
+        <f>(G3*(H24+I24)+D3*H24)/(H24+I24+J24)</f>
         <v>2.584225</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29">
+        <f>-J3*O24/(M24+O24)</f>
+        <v>-1.11565</v>
+      </c>
+      <c r="O29">
+        <f>-J3*M24/(M24+O24)</f>
+        <v>-2.2523499999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" t="s">
         <v>93</v>
       </c>
-      <c r="E31" t="s">
-        <v>94</v>
+      <c r="H31" t="s">
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31" t="s">
-        <v>50</v>
-      </c>
-      <c r="L31" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M31" t="s">
+        <v>92</v>
+      </c>
+      <c r="O31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C32">
         <f>C27*C24</f>
-        <v>-19.811897343750001</v>
+        <v>-22.442092842607313</v>
       </c>
       <c r="E32">
         <f>E27*E24</f>
-        <v>-4.7386353437499986</v>
+        <v>-7.3688308426073119</v>
+      </c>
+      <c r="H32">
+        <f>H24*H27</f>
+        <v>-23.01919640625</v>
       </c>
       <c r="I32">
-        <f>I24*I27</f>
-        <v>-23.01919640625</v>
+        <f>I27*(I24+J24)+H3*I24-I3*G5/2</f>
+        <v>40.147541593750006</v>
       </c>
       <c r="J32">
-        <f>J27*(J24+K24)+H3*J24-I3*G5/2</f>
-        <v>40.147541593750006</v>
+        <f>I27*J24</f>
+        <v>-5.0962024124999923</v>
       </c>
       <c r="K32">
-        <f>J27*K24</f>
-        <v>-5.0962024124999923</v>
-      </c>
-      <c r="L32">
-        <f>I27*(I24+J24)+F3*D5/2-E3*J24</f>
+        <f>H27*(H24+I24)+F3*D5/2-E3*I24</f>
         <v>-41.921202412499987</v>
       </c>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M32">
+        <f>M27*M24</f>
+        <v>-28.618487500000001</v>
+      </c>
+      <c r="O32">
+        <f>O27*O24</f>
+        <v>81.856512499999994</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="H33" t="s">
+        <v>52</v>
       </c>
       <c r="I33" t="s">
-        <v>52</v>
-      </c>
-      <c r="J33" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C34">
         <f>C29*C24</f>
-        <v>-40.654687499999994</v>
+        <v>-45.333386327503966</v>
+      </c>
+      <c r="H34">
+        <f>H29*H24</f>
+        <v>82.491562499999986</v>
       </c>
       <c r="I34">
-        <f>I29*I24</f>
-        <v>82.491562499999986</v>
-      </c>
-      <c r="J34">
-        <f>J29*K24</f>
+        <f>I29*J24</f>
         <v>136.96392499999999</v>
       </c>
-    </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M34">
+        <f>M29*M24</f>
+        <v>-119.37455</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" t="s">
         <v>96</v>
       </c>
-      <c r="E35" t="s">
-        <v>97</v>
+      <c r="H35" t="s">
+        <v>54</v>
       </c>
       <c r="I35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K35" t="s">
-        <v>55</v>
-      </c>
-      <c r="L35" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M35" t="s">
+        <v>95</v>
+      </c>
+      <c r="O35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C36">
         <f>SQRT(C32^2+C34^2)</f>
-        <v>45.225157734185345</v>
+        <v>50.584221325181332</v>
       </c>
       <c r="E36">
         <f>SQRT(E32^2+C34^2)</f>
-        <v>40.929919138005786</v>
+        <v>45.928374496662563</v>
+      </c>
+      <c r="H36">
+        <f>SQRT(H32^2+H34^2)</f>
+        <v>85.643104140852557</v>
       </c>
       <c r="I36">
-        <f>SQRT(I32^2+I34^2)</f>
-        <v>85.643104140852557</v>
+        <f>SQRT(I32^2+H34^2)</f>
+        <v>91.742481870250771</v>
       </c>
       <c r="J36">
         <f>SQRT(J32^2+I34^2)</f>
-        <v>91.742481870250771</v>
+        <v>137.05870286280543</v>
       </c>
       <c r="K36">
-        <f>SQRT(K32^2+J34^2)</f>
-        <v>137.05870286280543</v>
-      </c>
-      <c r="L36">
-        <f>SQRT(L32^2+J34^2)</f>
+        <f>SQRT(K32^2+I34^2)</f>
         <v>143.2358333766918</v>
       </c>
-    </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M36">
+        <f>SQRT(M32^2+M34^2)</f>
+        <v>122.75708132116108</v>
+      </c>
+      <c r="O36">
+        <f>SQRT(O32^2+M34^2)</f>
+        <v>144.74381446668164</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" t="s">
         <v>98</v>
       </c>
-      <c r="E37" t="s">
-        <v>99</v>
+      <c r="H37" t="s">
+        <v>59</v>
       </c>
       <c r="I37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K37" t="s">
-        <v>61</v>
-      </c>
-      <c r="L37" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M37" t="s">
+        <v>97</v>
+      </c>
+      <c r="O37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C38">
         <f>SQRT(C36^2+(B10*O4)^2)</f>
-        <v>49.047776378159533</v>
+        <v>54.029000755473255</v>
       </c>
       <c r="E38">
         <f>SQRT(E36^2+(B10*O4)^2)</f>
-        <v>45.117931648111842</v>
+        <v>49.696932093094887</v>
+      </c>
+      <c r="H38">
+        <f>SQRT(H36^2+(B10*P4)^2)</f>
+        <v>114.76257401313774</v>
       </c>
       <c r="I38">
         <f>SQRT(I36^2+(B10*P4)^2)</f>
-        <v>114.76257401313774</v>
+        <v>119.38337441601026</v>
       </c>
       <c r="J38">
         <f>SQRT(J36^2+(B10*P4)^2)</f>
-        <v>119.38337441601026</v>
+        <v>156.91014988736322</v>
       </c>
       <c r="K38">
         <f>SQRT(K36^2+(B10*P4)^2)</f>
-        <v>156.91014988736322</v>
-      </c>
-      <c r="L38">
-        <f>SQRT(L36^2+(B10*P4)^2)</f>
         <v>162.33364121572404</v>
       </c>
-    </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M38">
+        <f>SQRT(M36^2+(B10*Q4)^2)</f>
+        <v>251.72333554617089</v>
+      </c>
+      <c r="O38">
+        <f>SQRT(O36^2+(B10*Q4)^2)</f>
+        <v>263.14655321771772</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
         <v>63</v>
       </c>
-      <c r="I39" t="s">
+      <c r="H39" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C40" s="6">
         <f>(MAX(C38,E38)/0.1/C10)^(1/3)*10</f>
-        <v>20.737300032010999</v>
-      </c>
-      <c r="I40" s="6">
-        <f>(MAX(I38,J38,K38,L38)/0.1/C10)^(1/3)*10</f>
+        <v>21.416808265948738</v>
+      </c>
+      <c r="H40" s="6">
+        <f>(MAX(H38,I38,J38,K38)/0.1/C10)^(1/3)*10</f>
         <v>30.90404163462366</v>
       </c>
-    </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="6">
+        <f>(MAX(M38,O38)/0.1/C10)^(1/3)*10</f>
+        <v>36.303207567110533</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
         <v>73</v>
       </c>
-      <c r="I41" t="s">
+      <c r="H41" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
         <v>75</v>
       </c>
@@ -1545,23 +1746,35 @@
       <c r="F42" t="s">
         <v>80</v>
       </c>
+      <c r="H42" t="s">
+        <v>75</v>
+      </c>
       <c r="I42" t="s">
+        <v>76</v>
+      </c>
+      <c r="J42" t="s">
+        <v>79</v>
+      </c>
+      <c r="K42" t="s">
+        <v>80</v>
+      </c>
+      <c r="M42" t="s">
         <v>75</v>
       </c>
-      <c r="J42" t="s">
+      <c r="N42" t="s">
         <v>76</v>
       </c>
-      <c r="K42" t="s">
+      <c r="O42" t="s">
         <v>79</v>
       </c>
-      <c r="L42" t="s">
+      <c r="P42" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C43">
         <f>32*MAX(C36,E36)/3.14/A5^3*1000</f>
-        <v>4.6626356146655565</v>
+        <v>5.2151458105945716</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1574,59 +1787,106 @@
         <f>E43</f>
         <v>0.84360161088309704</v>
       </c>
+      <c r="H43">
+        <f>32*MAX(H36,I36,J36,K36)/3.14/G5^3*1000</f>
+        <v>3.4600965647023445</v>
+      </c>
       <c r="I43">
-        <f>32*MAX(I36,J36,K36,L36)/3.14/G5^3*1000</f>
-        <v>3.4600965647023445</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
         <f>8*P4/3.14/G5^3*1000</f>
         <v>0.7954177872139655</v>
       </c>
-      <c r="L43">
-        <f>K43</f>
+      <c r="K43">
+        <f>J43</f>
         <v>0.7954177872139655</v>
       </c>
-    </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M43">
+        <f>32*MAX(M36,O36)/3.14/J5^3*1000</f>
+        <v>0.12950090081857357</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f>8*Q4/3.14/J5^3*1000</f>
+        <v>8.4749547849335527E-2</v>
+      </c>
+      <c r="P43">
+        <f>O43</f>
+        <v>8.4749547849335527E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>74</v>
       </c>
       <c r="D44" t="s">
         <v>77</v>
       </c>
+      <c r="H44" t="s">
+        <v>74</v>
+      </c>
       <c r="I44" t="s">
+        <v>77</v>
+      </c>
+      <c r="M44" t="s">
         <v>74</v>
       </c>
-      <c r="J44" t="s">
+      <c r="N44" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <f>M10*D10/(H10/J10/L10*C43+F10*D43)</f>
+        <v>20.120591445142175</v>
+      </c>
+      <c r="D45">
+        <f>M10*E10/(I10/K10/L10*E43+G10*F43)</f>
+        <v>74.320550192411858</v>
+      </c>
+      <c r="H45">
+        <f>M10*D10/(H10/J10/L10*H43+F10*I43)</f>
+        <v>30.326268709452901</v>
+      </c>
       <c r="I45">
-        <f>M10*D10/(H10/J10/L10*I43+F10*J43)</f>
-        <v>30.326268709452901</v>
-      </c>
-      <c r="J45">
-        <f>M10*E10/(I10/K10/L10*K43+G10*L43)</f>
+        <f>M10*E10/(I10/K10/L10*J43+G10*K43)</f>
         <v>78.822647509102524</v>
       </c>
-    </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M45">
+        <f>M10*D10/(H10/J10/L10*M43+F10*N43)</f>
+        <v>810.27867388215429</v>
+      </c>
+      <c r="N45">
+        <f>M10*E10/(I10/K10/L10*N43+G10*O43)</f>
+        <v>16519.262173396673</v>
+      </c>
+    </row>
+    <row r="46" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>81</v>
       </c>
-      <c r="I46" t="s">
+      <c r="H46" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C47" s="6"/>
-      <c r="I47" s="6">
-        <f>I45*J45/SQRT(I45^2+J45^2)</f>
+      <c r="M46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C47" s="6">
+        <f>C45*D45/SQRT(C45^2+D45^2)</f>
+        <v>19.421445693347689</v>
+      </c>
+      <c r="H47" s="6">
+        <f>H45*I45/SQRT(H45^2+I45^2)</f>
         <v>28.30370252146637</v>
+      </c>
+      <c r="M47" s="6">
+        <f>M45*N45/SQRT(M45^2+N45^2)</f>
+        <v>809.30568219079998</v>
       </c>
     </row>
   </sheetData>

--- a/减速器轴结构设计校核.xlsx
+++ b/减速器轴结构设计校核.xlsx
@@ -836,7 +836,7 @@
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C22">
-        <v>22.5</v>
+        <v>21.5</v>
       </c>
       <c r="D22">
         <v>10</v>
@@ -1366,7 +1366,7 @@
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C24">
         <f>A7/2+D22+C22/2</f>
-        <v>44.75</v>
+        <v>44.25</v>
       </c>
       <c r="E24">
         <f>A7/2+E22+F22/2</f>
@@ -1416,11 +1416,11 @@
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C27">
         <f>(-C3*A5/2-B3*E24)/(C24+E24)</f>
-        <v>-0.50149928139904609</v>
+        <v>-0.5030989601275917</v>
       </c>
       <c r="E27">
         <f>(-B3*C24+C3*A5/2)/(C24+E24)</f>
-        <v>-6.5500718600953883E-2</v>
+        <v>-6.3901039872408277E-2</v>
       </c>
       <c r="H27">
         <f>(-F3*D5/2+E3*(I24+J24)-I3*G5/2-H3*J24)/(H24+I24+J24)</f>
@@ -1462,11 +1462,11 @@
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C29">
         <f>-A3*E24/(C24+E24)</f>
-        <v>-1.0130365659777423</v>
+        <v>-1.016267942583732</v>
       </c>
       <c r="E29">
         <f>-A3*C24/(C24+E24)</f>
-        <v>-0.40296343402225754</v>
+        <v>-0.39973205741626788</v>
       </c>
       <c r="H29">
         <f>(D3*(I24+J24)+G3*J24)/(H24+I24+J24)</f>
@@ -1514,11 +1514,11 @@
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C32">
         <f>C27*C24</f>
-        <v>-22.442092842607313</v>
+        <v>-22.262128985645933</v>
       </c>
       <c r="E32">
         <f>E27*E24</f>
-        <v>-7.3688308426073119</v>
+        <v>-7.1888669856459311</v>
       </c>
       <c r="H32">
         <f>H24*H27</f>
@@ -1562,7 +1562,7 @@
     <row r="34" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C34">
         <f>C29*C24</f>
-        <v>-45.333386327503966</v>
+        <v>-44.969856459330138</v>
       </c>
       <c r="H34">
         <f>H29*H24</f>
@@ -1606,11 +1606,11 @@
     <row r="36" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C36">
         <f>SQRT(C32^2+C34^2)</f>
-        <v>50.584221325181332</v>
+        <v>50.178584843997875</v>
       </c>
       <c r="E36">
         <f>SQRT(E32^2+C34^2)</f>
-        <v>45.928374496662563</v>
+        <v>45.540836603097958</v>
       </c>
       <c r="H36">
         <f>SQRT(H32^2+H34^2)</f>
@@ -1666,11 +1666,11 @@
     <row r="38" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C38">
         <f>SQRT(C36^2+(B10*O4)^2)</f>
-        <v>54.029000755473255</v>
+        <v>53.649416143200412</v>
       </c>
       <c r="E38">
         <f>SQRT(E36^2+(B10*O4)^2)</f>
-        <v>49.696932093094887</v>
+        <v>49.339003578001723</v>
       </c>
       <c r="H38">
         <f>SQRT(H36^2+(B10*P4)^2)</f>
@@ -1711,7 +1711,7 @@
     <row r="40" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C40" s="6">
         <f>(MAX(C38,E38)/0.1/C10)^(1/3)*10</f>
-        <v>21.416808265948738</v>
+        <v>21.366535242746064</v>
       </c>
       <c r="H40" s="6">
         <f>(MAX(H38,I38,J38,K38)/0.1/C10)^(1/3)*10</f>
@@ -1774,7 +1774,7 @@
     <row r="43" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C43">
         <f>32*MAX(C36,E36)/3.14/A5^3*1000</f>
-        <v>5.2151458105945716</v>
+        <v>5.1733253903123462</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1841,7 +1841,7 @@
     <row r="45" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C45">
         <f>M10*D10/(H10/J10/L10*C43+F10*D43)</f>
-        <v>20.120591445142175</v>
+        <v>20.283243419854323</v>
       </c>
       <c r="D45">
         <f>M10*E10/(I10/K10/L10*E43+G10*F43)</f>
@@ -1878,7 +1878,7 @@
     <row r="47" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C47" s="6">
         <f>C45*D45/SQRT(C45^2+D45^2)</f>
-        <v>19.421445693347689</v>
+        <v>19.567603283687681</v>
       </c>
       <c r="H47" s="6">
         <f>H45*I45/SQRT(H45^2+I45^2)</f>
